--- a/medicine/Sexualité et sexologie/Affaire_French_Bukkake/Affaire_French_Bukkake.xlsx
+++ b/medicine/Sexualité et sexologie/Affaire_French_Bukkake/Affaire_French_Bukkake.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'affaire French Bukkake démarre en octobre 2020 à Paris avec une série de mises en examen pour viol, proxénétisme et traite d’être humain, et concerne le site internet French Bukkake, détenu par Pascal Ollitrault (dit Pascal OP), qui diffuse des vidéos pornographiques d’une extrême violence. Le scandale éclate peu après celui des vidéos prétendument amateures du site Jacquie et Michel, aussi impliqué dans cette affaire.   
@@ -512,10 +524,12 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon un rapport du Haut Conseil à l’égalité entre les femmes et les hommes[1], ces affaires judiciaires font exception, et l’industrie pornographique profite d'une large impunité pour banaliser des « atteintes graves à la dignité humaine »[2].
-Un rapport d'information de la délégation aux droits des femmes au Sénat, publié le 27 septembre 2022, « Porno : l'enfer du décor - Rapport » qui évoque entre autres les affaires French Bukkake et Jacquie et Michel tire des conclusions similaires[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon un rapport du Haut Conseil à l’égalité entre les femmes et les hommes, ces affaires judiciaires font exception, et l’industrie pornographique profite d'une large impunité pour banaliser des « atteintes graves à la dignité humaine ».
+Un rapport d'information de la délégation aux droits des femmes au Sénat, publié le 27 septembre 2022, « Porno : l'enfer du décor - Rapport » qui évoque entre autres les affaires French Bukkake et Jacquie et Michel tire des conclusions similaires.
 </t>
         </is>
       </c>
@@ -544,14 +558,16 @@
           <t>Affaire judiciaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'enquête révèle que Julien D., qui se présentait sous le nom d’Axelle Vercoutre, appâtait de jeunes femmes sur les réseaux sociaux avec des promesses de larges rémunérations, pour leur faire tourner des vidéos pornographiques ; mais les très nombreuses victimes expliquent avoir été violées devant la caméra pour le tournage, sous la menace, de scènes très dégradantes, en particulier des scènes de bukkake montrant des dizaines d’hommes éjaculer sur la même femme[4],[5].
-Mat Hadix, qui travaillait aussi pour la plate-forme de vidéos du producteur Marc Dorcel et pour le site Jacquie et Michel, fournissait le matériel technique et les appartements pour les tournages[5]. Un intermédiaire recrutait les acteurs masculins amateurs[6],[7].
-Les femmes étaient aussi escroquées lorsqu'elle demandaient la suppression de la vidéo en ligne[6],[8]. Les victimes témoignent de grandes difficultés psychologiques à la suite de ces tournages. Certaines tentent des démarches judiciaires dès 2017, mais la police ne réagit pas : les alertes à Toulouse, Brignoles, Les Andelys, et Reims (où réside Julien D.) sont toutes ignorées, jusqu'à l'enquête de gendarmerie de la section de recherches de Paris qui débute en mars 2020[9], et inclut une première vague d’arrestations et de perquisitions en octobre de cette année-là[10],[11],[12],[7].
-Pascal Ollitrault et ses associés utilisent la même défense : selon eux, les femmes étaient consentantes[5]. Selon les enquêteurs au contraire, les protagonistes étaient conscients de la violence qu’ils exerçaient, et le parquet demande dans son réquisitoire en juillet 2023 le renvoi de dix-sept personnes (producteurs, réalisateurs ou acteurs) devant la cour criminelle pour des faits de viol (commis souvent en réunion), traite d’êtres humains, proxénétisme aggravé, et travail dissimulé[13],[14],[15]. Certains avocats des victimes font appel de cette ordonnance pour faire valoir des circonstances aggravantes (sexisme, racisme, actes de torture et de barbarie) et obtenir que le procès ait lieu en cour d’assises[13],[16].
-Le 14 décembre 2023, la chambre de l’instruction de la Cour d’appel de Paris renvoie le dossier à l’instruction. Elle ordonne « un supplément d'information pour mise en examen supplétive du chef de viol en réunion d'une personne déjà mise en examen pour d'autres viols ». Cette décision doit intervenir « avant le 14 avril 2024, date à laquelle la chambre de l'instruction statuera sur le fond »[17].
-Dans une série d'articles parus dans Médiapart[18] , le journaliste Robin d'Angelo montre que "de nombreux acteurs et producteurs auraient participé, ou couvert, les violences des deux principaux accusés"[19] et cible en particulier les diffuseurs Marc Dorcel et  Jacquie et Michel[20],[21],dont le dirigeant Michel Piron a été mis en examen pour complicité de viol et traite d’être humain en bande organisée en juin 2022, dans une affaire distincte[22].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'enquête révèle que Julien D., qui se présentait sous le nom d’Axelle Vercoutre, appâtait de jeunes femmes sur les réseaux sociaux avec des promesses de larges rémunérations, pour leur faire tourner des vidéos pornographiques ; mais les très nombreuses victimes expliquent avoir été violées devant la caméra pour le tournage, sous la menace, de scènes très dégradantes, en particulier des scènes de bukkake montrant des dizaines d’hommes éjaculer sur la même femme,.
+Mat Hadix, qui travaillait aussi pour la plate-forme de vidéos du producteur Marc Dorcel et pour le site Jacquie et Michel, fournissait le matériel technique et les appartements pour les tournages. Un intermédiaire recrutait les acteurs masculins amateurs,.
+Les femmes étaient aussi escroquées lorsqu'elle demandaient la suppression de la vidéo en ligne,. Les victimes témoignent de grandes difficultés psychologiques à la suite de ces tournages. Certaines tentent des démarches judiciaires dès 2017, mais la police ne réagit pas : les alertes à Toulouse, Brignoles, Les Andelys, et Reims (où réside Julien D.) sont toutes ignorées, jusqu'à l'enquête de gendarmerie de la section de recherches de Paris qui débute en mars 2020, et inclut une première vague d’arrestations et de perquisitions en octobre de cette année-là.
+Pascal Ollitrault et ses associés utilisent la même défense : selon eux, les femmes étaient consentantes. Selon les enquêteurs au contraire, les protagonistes étaient conscients de la violence qu’ils exerçaient, et le parquet demande dans son réquisitoire en juillet 2023 le renvoi de dix-sept personnes (producteurs, réalisateurs ou acteurs) devant la cour criminelle pour des faits de viol (commis souvent en réunion), traite d’êtres humains, proxénétisme aggravé, et travail dissimulé. Certains avocats des victimes font appel de cette ordonnance pour faire valoir des circonstances aggravantes (sexisme, racisme, actes de torture et de barbarie) et obtenir que le procès ait lieu en cour d’assises,.
+Le 14 décembre 2023, la chambre de l’instruction de la Cour d’appel de Paris renvoie le dossier à l’instruction. Elle ordonne « un supplément d'information pour mise en examen supplétive du chef de viol en réunion d'une personne déjà mise en examen pour d'autres viols ». Cette décision doit intervenir « avant le 14 avril 2024, date à laquelle la chambre de l'instruction statuera sur le fond ».
+Dans une série d'articles parus dans Médiapart , le journaliste Robin d'Angelo montre que "de nombreux acteurs et producteurs auraient participé, ou couvert, les violences des deux principaux accusés" et cible en particulier les diffuseurs Marc Dorcel et  Jacquie et Micheldont le dirigeant Michel Piron a été mis en examen pour complicité de viol et traite d’être humain en bande organisée en juin 2022, dans une affaire distincte.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Débats juridiques et sémantiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En droit français la pornographie n’est réprimée que si elle concerne les mineurs, et le proxénétisme n'est pas défini en lien avec l'activité pornographique mais avec celle de prostitution, laquelle n'est pas explicitement définie[23]. Pour qualifier les délits, les magistrats devront donc s'appuyer sur une  jurisprudence complexe, en particulier il n'est pas sûr que la pornographie puisse être considérée comme une activité prostitutionnelle[23].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En droit français la pornographie n’est réprimée que si elle concerne les mineurs, et le proxénétisme n'est pas défini en lien avec l'activité pornographique mais avec celle de prostitution, laquelle n'est pas explicitement définie. Pour qualifier les délits, les magistrats devront donc s'appuyer sur une  jurisprudence complexe, en particulier il n'est pas sûr que la pornographie puisse être considérée comme une activité prostitutionnelle.
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Documents</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Haut Conseil à l'Égalité entre les femmes et les hommes, « Rapport - PORNOCRIMINALITE : mettons fin à l'impunité de l'industrie pornographique », sur www.haut-conseil-egalite.gouv.fr, 2023 (consulté le 27 septembre 2023)
 Rapport d'information de la délégation aux droits des femmes du Sénat, publié le 27 septembre 2022, " Porno : l'enfer du décor - Rapport "
